--- a/Data/data, fish & fisheries, SD22-24.xlsx
+++ b/Data/data, fish & fisheries, SD22-24.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Fischerei - Master\Sentiment-Analysis-Western-Baltic-Sea\Final GitHub\Fishery Paper\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{709FB6F7-11F8-40FB-A193-2B9EF09A4F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731FA32D-D8D2-4A55-B91E-3D1DC5EE0487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="advice vs quota" sheetId="1" r:id="rId1"/>
@@ -319,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -780,58 +775,10 @@
     <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -859,6 +806,54 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1089,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.875" style="4" bestFit="1"/>
     <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
@@ -1107,37 +1102,37 @@
     <col min="15" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="54" t="s">
+      <c r="G1" s="66"/>
+      <c r="H1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="55"/>
-      <c r="L1" s="54" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="55"/>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="M1" s="66"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A2" s="66"/>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1">
       <c r="A3" s="2">
         <v>1987</v>
       </c>
@@ -1216,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="6" customFormat="1">
       <c r="A4" s="2">
         <v>1988</v>
       </c>
@@ -1257,7 +1252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="6" customFormat="1">
       <c r="A5" s="2">
         <v>1989</v>
       </c>
@@ -1298,7 +1293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="6" customFormat="1">
       <c r="A6" s="2">
         <v>1990</v>
       </c>
@@ -1339,7 +1334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="6" customFormat="1">
       <c r="A7" s="2">
         <v>1991</v>
       </c>
@@ -1380,7 +1375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>1992</v>
       </c>
@@ -1421,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>1993</v>
       </c>
@@ -1462,7 +1457,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>1994</v>
       </c>
@@ -1503,7 +1498,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>1995</v>
       </c>
@@ -1544,7 +1539,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>1996</v>
       </c>
@@ -1585,7 +1580,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>1997</v>
       </c>
@@ -1626,7 +1621,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>1998</v>
       </c>
@@ -1667,7 +1662,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>1999</v>
       </c>
@@ -1708,7 +1703,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>2000</v>
       </c>
@@ -1749,7 +1744,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>2001</v>
       </c>
@@ -1790,7 +1785,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>2002</v>
       </c>
@@ -1831,7 +1826,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>2003</v>
       </c>
@@ -1872,7 +1867,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>2004</v>
       </c>
@@ -1913,7 +1908,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>2005</v>
       </c>
@@ -1954,7 +1949,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>2006</v>
       </c>
@@ -1995,7 +1990,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>2007</v>
       </c>
@@ -2036,7 +2031,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>2008</v>
       </c>
@@ -2077,7 +2072,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>2009</v>
       </c>
@@ -2118,7 +2113,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>2010</v>
       </c>
@@ -2159,7 +2154,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>2011</v>
       </c>
@@ -2200,7 +2195,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>2012</v>
       </c>
@@ -2241,7 +2236,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>2013</v>
       </c>
@@ -2282,7 +2277,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>2014</v>
       </c>
@@ -2323,7 +2318,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>2015</v>
       </c>
@@ -2364,7 +2359,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>2016</v>
       </c>
@@ -2405,7 +2400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>2017</v>
       </c>
@@ -2446,7 +2441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>2018</v>
       </c>
@@ -2487,7 +2482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>2019</v>
       </c>
@@ -2528,7 +2523,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>2020</v>
       </c>
@@ -2569,7 +2564,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>2021</v>
       </c>
@@ -2594,7 +2589,7 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
         <v>2022</v>
       </c>
@@ -2638,39 +2633,39 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="10.875" style="13" bestFit="1"/>
     <col min="3" max="11" width="10.875" style="14" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="58" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="58" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="58" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="58" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="59"/>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1">
+      <c r="A2" s="71"/>
       <c r="B2" s="17" t="s">
         <v>71</v>
       </c>
@@ -2702,7 +2697,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>1992</v>
       </c>
@@ -2727,7 +2722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>1993</v>
       </c>
@@ -2752,7 +2747,7 @@
         <v>12910</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>1994</v>
       </c>
@@ -2777,7 +2772,7 @@
         <v>11090</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>1995</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>11310</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>1996</v>
       </c>
@@ -2827,7 +2822,7 @@
         <v>10180</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>1997</v>
       </c>
@@ -2852,7 +2847,7 @@
         <v>9270</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>1998</v>
       </c>
@@ -2877,7 +2872,7 @@
         <v>9273</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>1999</v>
       </c>
@@ -2902,7 +2897,7 @@
         <v>9273</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>2000</v>
       </c>
@@ -2927,7 +2922,7 @@
         <v>10178</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>2001</v>
       </c>
@@ -2952,7 +2947,7 @@
         <v>10178</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>2002</v>
       </c>
@@ -2977,7 +2972,7 @@
         <v>10178</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>2003</v>
       </c>
@@ -3002,7 +2997,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>2004</v>
       </c>
@@ -3027,7 +3022,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>2005</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>2006</v>
       </c>
@@ -3077,7 +3072,7 @@
         <v>9884</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>2007</v>
       </c>
@@ -3102,7 +3097,7 @@
         <v>10404</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>2008</v>
       </c>
@@ -3127,7 +3122,7 @@
         <v>8401</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>2009</v>
       </c>
@@ -3152,7 +3147,7 @@
         <v>6418</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>2010</v>
       </c>
@@ -3177,7 +3172,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>2011</v>
       </c>
@@ -3202,7 +3197,7 @@
         <v>5767</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>2012</v>
       </c>
@@ -3227,7 +3222,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>2013</v>
       </c>
@@ -3252,7 +3247,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>2014</v>
       </c>
@@ -3277,7 +3272,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>2015</v>
       </c>
@@ -3302,7 +3297,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>2016</v>
       </c>
@@ -3327,7 +3322,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>2017</v>
       </c>
@@ -3352,7 +3347,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>2018</v>
       </c>
@@ -3377,7 +3372,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>2019</v>
       </c>
@@ -3402,7 +3397,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>2020</v>
       </c>
@@ -3427,7 +3422,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>2021</v>
       </c>
@@ -3452,7 +3447,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="17">
         <v>2022</v>
       </c>
@@ -3499,870 +3494,871 @@
       <selection sqref="A1:K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="67" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="67" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="67" t="s">
+      <c r="G1" s="74"/>
+      <c r="H1" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="68"/>
-      <c r="J1" s="67" t="s">
+      <c r="I1" s="74"/>
+      <c r="J1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="68"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70" t="s">
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="73"/>
+      <c r="B2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="72">
+    <row r="3" spans="1:11">
+      <c r="A3" s="56">
         <v>1992</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57">
         <v>65970</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57">
         <v>10730</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57">
         <v>11670</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="72">
+    <row r="4" spans="1:11">
+      <c r="A4" s="56">
         <v>1993</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="73">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57">
         <v>81440</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57">
         <v>4210</v>
       </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57">
         <v>18910</v>
       </c>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57">
         <v>12910</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+    <row r="5" spans="1:11">
+      <c r="A5" s="56">
         <v>1994</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57">
         <v>92790</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57">
         <v>6460</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73">
+      <c r="F5" s="57"/>
+      <c r="G5" s="57">
         <v>42480</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73">
+      <c r="H5" s="57"/>
+      <c r="I5" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57">
         <v>11090</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="72">
+    <row r="6" spans="1:11">
+      <c r="A6" s="56">
         <v>1995</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57">
         <v>97450</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57">
         <v>21638</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73">
+      <c r="F6" s="57"/>
+      <c r="G6" s="57">
         <v>30910</v>
       </c>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73">
+      <c r="H6" s="57"/>
+      <c r="I6" s="57">
         <v>300</v>
       </c>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57">
         <v>11310</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="72">
+    <row r="7" spans="1:11">
+      <c r="A7" s="56">
         <v>1996</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57">
         <v>97450</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57">
         <v>20070</v>
       </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73">
+      <c r="F7" s="57"/>
+      <c r="G7" s="57">
         <v>27170</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73">
+      <c r="H7" s="57"/>
+      <c r="I7" s="57">
         <v>300</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73">
+      <c r="J7" s="57"/>
+      <c r="K7" s="57">
         <v>10180</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="72">
+    <row r="8" spans="1:11">
+      <c r="A8" s="56">
         <v>1997</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57">
         <v>97450</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57">
         <v>21638</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73">
+      <c r="F8" s="57"/>
+      <c r="G8" s="57">
         <v>30910</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73">
+      <c r="H8" s="57"/>
+      <c r="I8" s="57">
         <v>300</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73">
+      <c r="J8" s="57"/>
+      <c r="K8" s="57">
         <v>9270</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
+    <row r="9" spans="1:11">
+      <c r="A9" s="56">
         <v>1998</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57">
         <v>97450</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73">
+      <c r="D9" s="57"/>
+      <c r="E9" s="57">
         <v>16846</v>
       </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73">
+      <c r="F9" s="57"/>
+      <c r="G9" s="57">
         <v>30910</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73">
+      <c r="H9" s="57"/>
+      <c r="I9" s="57">
         <v>300</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73">
+      <c r="J9" s="57"/>
+      <c r="K9" s="57">
         <v>9273</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="72">
+    <row r="10" spans="1:11">
+      <c r="A10" s="56">
         <v>1999</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57">
         <v>82841</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57">
         <v>15156</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73">
+      <c r="F10" s="57"/>
+      <c r="G10" s="57">
         <v>26299</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73">
+      <c r="H10" s="57"/>
+      <c r="I10" s="57">
         <v>300</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73">
+      <c r="J10" s="57"/>
+      <c r="K10" s="57">
         <v>9273</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="72">
+    <row r="11" spans="1:11">
+      <c r="A11" s="56">
         <v>2000</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57">
         <v>70486</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73">
+      <c r="D11" s="57"/>
+      <c r="E11" s="57">
         <v>12623</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73">
+      <c r="F11" s="57"/>
+      <c r="G11" s="57">
         <v>22478</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73">
+      <c r="H11" s="57"/>
+      <c r="I11" s="57">
         <v>300</v>
       </c>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73">
+      <c r="J11" s="57"/>
+      <c r="K11" s="57">
         <v>10178</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="72">
+    <row r="12" spans="1:11">
+      <c r="A12" s="56">
         <v>2001</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57">
         <v>51261</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57">
         <v>12862</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73">
+      <c r="F12" s="57"/>
+      <c r="G12" s="57">
         <v>19948</v>
       </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73">
+      <c r="H12" s="57"/>
+      <c r="I12" s="57">
         <v>300</v>
       </c>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73">
+      <c r="J12" s="57"/>
+      <c r="K12" s="57">
         <v>10178</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="72">
+    <row r="13" spans="1:11">
+      <c r="A13" s="56">
         <v>2002</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57">
         <v>34808</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73">
+      <c r="D13" s="57"/>
+      <c r="E13" s="57">
         <v>9127</v>
       </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73">
+      <c r="F13" s="57"/>
+      <c r="G13" s="57">
         <v>21353</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="73">
+      <c r="H13" s="57"/>
+      <c r="I13" s="57">
         <v>300</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73">
+      <c r="J13" s="57"/>
+      <c r="K13" s="57">
         <v>10178</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
+    <row r="14" spans="1:11">
+      <c r="A14" s="56">
         <v>2003</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57">
         <v>24948</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57">
         <v>9250</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73">
+      <c r="F14" s="57"/>
+      <c r="G14" s="57">
         <v>17470</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73">
+      <c r="H14" s="57"/>
+      <c r="I14" s="57">
         <v>300</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73">
+      <c r="J14" s="57"/>
+      <c r="K14" s="57">
         <v>10404</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="72">
+    <row r="15" spans="1:11">
+      <c r="A15" s="56">
         <v>2004</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57">
         <v>25106</v>
       </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73">
+      <c r="D15" s="57"/>
+      <c r="E15" s="57">
         <v>3742</v>
       </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73">
+      <c r="F15" s="57"/>
+      <c r="G15" s="57">
         <v>23601</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73">
+      <c r="H15" s="57"/>
+      <c r="I15" s="57">
         <v>300</v>
       </c>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73">
+      <c r="J15" s="57"/>
+      <c r="K15" s="57">
         <v>10404</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
+    <row r="16" spans="1:11">
+      <c r="A16" s="56">
         <v>2005</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57">
         <v>25380</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57">
         <v>5271</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73">
+      <c r="F16" s="57"/>
+      <c r="G16" s="57">
         <v>30907</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73">
+      <c r="H16" s="57"/>
+      <c r="I16" s="57">
         <v>300</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73">
+      <c r="J16" s="57"/>
+      <c r="K16" s="57">
         <v>10404</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="72">
+    <row r="17" spans="1:11">
+      <c r="A17" s="56">
         <v>2006</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57">
         <v>27311</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57">
         <v>5697</v>
       </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73">
+      <c r="F17" s="57"/>
+      <c r="G17" s="57">
         <v>28403</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73">
+      <c r="H17" s="57"/>
+      <c r="I17" s="57">
         <v>300</v>
       </c>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73">
+      <c r="J17" s="57"/>
+      <c r="K17" s="57">
         <v>9884</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+    <row r="18" spans="1:11">
+      <c r="A18" s="56">
         <v>2007</v>
       </c>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57">
         <v>26207</v>
       </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73">
+      <c r="D18" s="57"/>
+      <c r="E18" s="57">
         <v>5697</v>
       </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73">
+      <c r="F18" s="57"/>
+      <c r="G18" s="57">
         <v>26299</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73">
+      <c r="H18" s="57"/>
+      <c r="I18" s="57">
         <v>300</v>
       </c>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73">
+      <c r="J18" s="57"/>
+      <c r="K18" s="57">
         <v>10404</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="72">
+    <row r="19" spans="1:11">
+      <c r="A19" s="56">
         <v>2008</v>
       </c>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57">
         <v>24579</v>
       </c>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73">
+      <c r="D19" s="57"/>
+      <c r="E19" s="57">
         <v>4102</v>
       </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73">
+      <c r="F19" s="57"/>
+      <c r="G19" s="57">
         <v>28403</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73">
+      <c r="H19" s="57"/>
+      <c r="I19" s="57">
         <v>255</v>
       </c>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73">
+      <c r="J19" s="57"/>
+      <c r="K19" s="57">
         <v>8401</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="72">
+    <row r="20" spans="1:11">
+      <c r="A20" s="56">
         <v>2009</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57">
         <v>14994</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73">
+      <c r="D20" s="57"/>
+      <c r="E20" s="57">
         <v>3487</v>
       </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73">
+      <c r="F20" s="57"/>
+      <c r="G20" s="57">
         <v>24994</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73">
+      <c r="H20" s="57"/>
+      <c r="I20" s="57">
         <v>242</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73">
+      <c r="J20" s="57"/>
+      <c r="K20" s="57">
         <v>6418</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="72">
+    <row r="21" spans="1:11">
+      <c r="A21" s="56">
         <v>2010</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57">
         <v>12519</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57">
         <v>3777</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73">
+      <c r="F21" s="57"/>
+      <c r="G21" s="57">
         <v>23745</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73">
+      <c r="H21" s="57"/>
+      <c r="I21" s="57">
         <v>242</v>
       </c>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73">
+      <c r="J21" s="57"/>
+      <c r="K21" s="57">
         <v>6784</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
+    <row r="22" spans="1:11">
+      <c r="A22" s="56">
         <v>2011</v>
       </c>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57">
         <v>8763</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73">
+      <c r="D22" s="57"/>
+      <c r="E22" s="57">
         <v>4012</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73">
+      <c r="F22" s="57"/>
+      <c r="G22" s="57">
         <v>18046</v>
       </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73">
+      <c r="H22" s="57"/>
+      <c r="I22" s="57">
         <v>242</v>
       </c>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73">
+      <c r="J22" s="57"/>
+      <c r="K22" s="57">
         <v>5767</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="72">
+    <row r="23" spans="1:11">
+      <c r="A23" s="56">
         <v>2012</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57">
         <v>11532</v>
       </c>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73">
+      <c r="D23" s="57"/>
+      <c r="E23" s="57">
         <v>4546</v>
       </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73">
+      <c r="F23" s="57"/>
+      <c r="G23" s="57">
         <v>14076</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73">
+      <c r="H23" s="57"/>
+      <c r="I23" s="57">
         <v>230</v>
       </c>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73">
+      <c r="J23" s="57"/>
+      <c r="K23" s="57">
         <v>2826</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="72">
+    <row r="24" spans="1:11">
+      <c r="A24" s="56">
         <v>2013</v>
       </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57">
         <v>14234</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73">
+      <c r="D24" s="57"/>
+      <c r="E24" s="57">
         <v>4277</v>
       </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73">
+      <c r="F24" s="57"/>
+      <c r="G24" s="57">
         <v>15622</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73">
+      <c r="H24" s="57"/>
+      <c r="I24" s="57">
         <v>271</v>
       </c>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73">
+      <c r="J24" s="57"/>
+      <c r="K24" s="57">
         <v>2508</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="72">
+    <row r="25" spans="1:11">
+      <c r="A25" s="56">
         <v>2014</v>
       </c>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57">
         <v>10900</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57">
         <v>3636</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73">
+      <c r="F25" s="57"/>
+      <c r="G25" s="57">
         <v>14997</v>
       </c>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73">
+      <c r="H25" s="57"/>
+      <c r="I25" s="57">
         <v>271</v>
       </c>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73">
+      <c r="J25" s="57"/>
+      <c r="K25" s="57">
         <v>2457</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
+    <row r="26" spans="1:11">
+      <c r="A26" s="56">
         <v>2015</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73">
+      <c r="B26" s="56"/>
+      <c r="C26" s="57">
         <v>12259</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73">
+      <c r="D26" s="57"/>
+      <c r="E26" s="57">
         <v>3393</v>
       </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73">
+      <c r="F26" s="57"/>
+      <c r="G26" s="57">
         <v>13347</v>
       </c>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73">
+      <c r="H26" s="57"/>
+      <c r="I26" s="57">
         <v>271</v>
       </c>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73">
+      <c r="J26" s="57"/>
+      <c r="K26" s="57">
         <v>2212</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="72">
+    <row r="27" spans="1:11">
+      <c r="A27" s="56">
         <v>2016</v>
       </c>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57">
         <v>14496</v>
       </c>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73">
+      <c r="D27" s="57"/>
+      <c r="E27" s="57">
         <v>2715</v>
       </c>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73">
+      <c r="F27" s="57"/>
+      <c r="G27" s="57">
         <v>12644</v>
       </c>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73">
+      <c r="H27" s="57"/>
+      <c r="I27" s="57">
         <v>321</v>
       </c>
-      <c r="J27" s="73"/>
-      <c r="K27" s="73">
+      <c r="J27" s="57"/>
+      <c r="K27" s="57">
         <v>2212</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="72">
+    <row r="28" spans="1:11">
+      <c r="A28" s="56">
         <v>2017</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57">
         <v>15670</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73">
+      <c r="D28" s="57"/>
+      <c r="E28" s="57">
         <v>1194</v>
       </c>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73">
+      <c r="F28" s="57"/>
+      <c r="G28" s="57">
         <v>16310</v>
       </c>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73">
+      <c r="H28" s="57"/>
+      <c r="I28" s="57">
         <v>626</v>
       </c>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73">
+      <c r="J28" s="57"/>
+      <c r="K28" s="57">
         <v>2212</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="72">
+    <row r="29" spans="1:11">
+      <c r="A29" s="56">
         <v>2018</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="73">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57">
         <v>9551</v>
       </c>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73">
+      <c r="D29" s="57"/>
+      <c r="E29" s="57">
         <v>1194</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73">
+      <c r="F29" s="57"/>
+      <c r="G29" s="57">
         <v>16393</v>
       </c>
-      <c r="H29" s="73"/>
-      <c r="I29" s="73">
+      <c r="H29" s="57"/>
+      <c r="I29" s="57">
         <v>563</v>
       </c>
-      <c r="J29" s="73"/>
-      <c r="K29" s="73">
+      <c r="J29" s="57"/>
+      <c r="K29" s="57">
         <v>2101</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="72">
+    <row r="30" spans="1:11">
+      <c r="A30" s="56">
         <v>2019</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73">
+      <c r="B30" s="56"/>
+      <c r="C30" s="57">
         <v>4966</v>
       </c>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73">
+      <c r="D30" s="57"/>
+      <c r="E30" s="57">
         <v>2031</v>
       </c>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73">
+      <c r="F30" s="57"/>
+      <c r="G30" s="57">
         <v>16921</v>
       </c>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73">
+      <c r="H30" s="57"/>
+      <c r="I30" s="57">
         <v>806</v>
       </c>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73">
+      <c r="J30" s="57"/>
+      <c r="K30" s="57">
         <v>2101</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="72">
+    <row r="31" spans="1:11">
+      <c r="A31" s="56">
         <v>2020</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="73">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57">
         <v>1738</v>
       </c>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73">
+      <c r="D31" s="57"/>
+      <c r="E31" s="57">
         <v>812</v>
       </c>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73">
+      <c r="F31" s="57"/>
+      <c r="G31" s="57">
         <v>13132</v>
       </c>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73">
+      <c r="H31" s="57"/>
+      <c r="I31" s="57">
         <v>549</v>
       </c>
-      <c r="J31" s="73"/>
-      <c r="K31" s="73">
+      <c r="J31" s="57"/>
+      <c r="K31" s="57">
         <v>1996</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="72">
+    <row r="32" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A32" s="56">
         <v>2021</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73">
+      <c r="B32" s="56"/>
+      <c r="C32" s="57">
         <v>869</v>
       </c>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73">
+      <c r="D32" s="57"/>
+      <c r="E32" s="57">
         <v>854</v>
       </c>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73">
+      <c r="F32" s="57"/>
+      <c r="G32" s="57">
         <v>13933</v>
       </c>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73">
+      <c r="H32" s="57"/>
+      <c r="I32" s="57">
         <v>576</v>
       </c>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73">
+      <c r="J32" s="57"/>
+      <c r="K32" s="57">
         <v>2179</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74">
+    <row r="33" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A33" s="58">
         <v>2022</v>
       </c>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75">
+      <c r="B33" s="58"/>
+      <c r="C33" s="59">
         <v>435</v>
       </c>
-      <c r="D33" s="76"/>
-      <c r="E33" s="75">
+      <c r="D33" s="60"/>
+      <c r="E33" s="59">
         <v>104</v>
       </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="77">
+      <c r="F33" s="60"/>
+      <c r="G33" s="61">
         <v>15744</v>
       </c>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76">
+      <c r="H33" s="60"/>
+      <c r="I33" s="60">
         <v>720</v>
       </c>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76">
+      <c r="J33" s="60"/>
+      <c r="K33" s="60">
         <v>1482</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="78">
+    <row r="34" spans="1:11">
+      <c r="A34" s="62">
         <v>2023</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64">
         <v>435</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80">
+      <c r="D34" s="63"/>
+      <c r="E34" s="64">
         <v>104</v>
       </c>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4374,7 +4370,7 @@
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.875" style="4" bestFit="1"/>
     <col min="2" max="2" width="15.125" style="5" bestFit="1" customWidth="1"/>
@@ -4387,43 +4383,43 @@
     <col min="21" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:19" s="6" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="54" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="54" t="s">
+      <c r="I1" s="66"/>
+      <c r="J1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="54" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="54" t="s">
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="55"/>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
+      <c r="S1" s="66"/>
+    </row>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="26.1" customHeight="1">
+      <c r="A2" s="66"/>
       <c r="B2" s="18" t="s">
         <v>73</v>
       </c>
@@ -4479,7 +4475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="6" customFormat="1">
       <c r="A3" s="2">
         <v>1987</v>
       </c>
@@ -4520,7 +4516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="6" customFormat="1">
       <c r="A4" s="2">
         <v>1988</v>
       </c>
@@ -4561,7 +4557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="6" customFormat="1">
       <c r="A5" s="2">
         <v>1989</v>
       </c>
@@ -4602,7 +4598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="6" customFormat="1">
       <c r="A6" s="2">
         <v>1990</v>
       </c>
@@ -4643,7 +4639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="6" customFormat="1">
       <c r="A7" s="2">
         <v>1991</v>
       </c>
@@ -4686,7 +4682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>1992</v>
       </c>
@@ -4729,7 +4725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>1993</v>
       </c>
@@ -4774,7 +4770,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>1994</v>
       </c>
@@ -4821,7 +4817,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>1995</v>
       </c>
@@ -4868,7 +4864,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>1996</v>
       </c>
@@ -4915,7 +4911,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>1997</v>
       </c>
@@ -4962,7 +4958,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>1998</v>
       </c>
@@ -5009,7 +5005,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
         <v>1999</v>
       </c>
@@ -5063,7 +5059,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>2000</v>
       </c>
@@ -5117,7 +5113,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>2001</v>
       </c>
@@ -5171,7 +5167,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>2002</v>
       </c>
@@ -5232,7 +5228,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19" s="2">
         <v>2003</v>
       </c>
@@ -5293,7 +5289,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20" s="2">
         <v>2004</v>
       </c>
@@ -5354,7 +5350,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19">
       <c r="A21" s="2">
         <v>2005</v>
       </c>
@@ -5415,7 +5411,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19">
       <c r="A22" s="2">
         <v>2006</v>
       </c>
@@ -5476,7 +5472,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19">
       <c r="A23" s="2">
         <v>2007</v>
       </c>
@@ -5537,7 +5533,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19">
       <c r="A24" s="2">
         <v>2008</v>
       </c>
@@ -5598,7 +5594,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19">
       <c r="A25" s="2">
         <v>2009</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19">
       <c r="A26" s="2">
         <v>2010</v>
       </c>
@@ -5720,7 +5716,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19">
       <c r="A27" s="2">
         <v>2011</v>
       </c>
@@ -5781,7 +5777,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19">
       <c r="A28" s="2">
         <v>2012</v>
       </c>
@@ -5842,7 +5838,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19">
       <c r="A29" s="2">
         <v>2013</v>
       </c>
@@ -5903,7 +5899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19">
       <c r="A30" s="2">
         <v>2014</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19">
       <c r="A31" s="2">
         <v>2015</v>
       </c>
@@ -6025,7 +6021,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19">
       <c r="A32" s="2">
         <v>2016</v>
       </c>
@@ -6086,7 +6082,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" s="2">
         <v>2017</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" s="2">
         <v>2018</v>
       </c>
@@ -6208,7 +6204,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" s="2">
         <v>2019</v>
       </c>
@@ -6267,7 +6263,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" s="2">
         <v>2020</v>
       </c>
@@ -6312,7 +6308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>2021</v>
       </c>
@@ -6353,7 +6349,7 @@
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>2022</v>
       </c>
@@ -6417,7 +6413,7 @@
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="10.875" style="13" bestFit="1"/>
     <col min="3" max="5" width="10.875" style="14" bestFit="1"/>
@@ -6425,33 +6421,33 @@
     <col min="7" max="11" width="10.875" style="14" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" s="15" customFormat="1">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="63" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="63" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="63" t="s">
+      <c r="I1" s="70"/>
+      <c r="J1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="59"/>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1">
+      <c r="A2" s="71"/>
       <c r="B2" s="17" t="s">
         <v>78</v>
       </c>
@@ -6483,7 +6479,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>1975</v>
       </c>
@@ -6502,7 +6498,7 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>1976</v>
       </c>
@@ -6521,7 +6517,7 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>1977</v>
       </c>
@@ -6540,7 +6536,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>1978</v>
       </c>
@@ -6559,7 +6555,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>1979</v>
       </c>
@@ -6578,7 +6574,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>1980</v>
       </c>
@@ -6597,7 +6593,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>1981</v>
       </c>
@@ -6616,7 +6612,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>1982</v>
       </c>
@@ -6635,7 +6631,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>1983</v>
       </c>
@@ -6654,7 +6650,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>1984</v>
       </c>
@@ -6673,7 +6669,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>1985</v>
       </c>
@@ -6696,7 +6692,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>1986</v>
       </c>
@@ -6719,7 +6715,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>1987</v>
       </c>
@@ -6742,7 +6738,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>1988</v>
       </c>
@@ -6765,7 +6761,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>1989</v>
       </c>
@@ -6788,7 +6784,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>1990</v>
       </c>
@@ -6811,7 +6807,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>1991</v>
       </c>
@@ -6838,7 +6834,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>1992</v>
       </c>
@@ -6865,7 +6861,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>1993</v>
       </c>
@@ -6892,7 +6888,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>1994</v>
       </c>
@@ -6919,7 +6915,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>1995</v>
       </c>
@@ -6946,7 +6942,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>1996</v>
       </c>
@@ -6973,7 +6969,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>1997</v>
       </c>
@@ -7000,7 +6996,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>1998</v>
       </c>
@@ -7027,7 +7023,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>1999</v>
       </c>
@@ -7058,7 +7054,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>2000</v>
       </c>
@@ -7089,7 +7085,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>2001</v>
       </c>
@@ -7120,7 +7116,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>2002</v>
       </c>
@@ -7155,7 +7151,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>2003</v>
       </c>
@@ -7190,7 +7186,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>2004</v>
       </c>
@@ -7225,7 +7221,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>2005</v>
       </c>
@@ -7260,7 +7256,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>2006</v>
       </c>
@@ -7295,7 +7291,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>2007</v>
       </c>
@@ -7330,7 +7326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>2008</v>
       </c>
@@ -7365,7 +7361,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>2009</v>
       </c>
@@ -7400,7 +7396,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>2010</v>
       </c>
@@ -7435,7 +7431,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>2011</v>
       </c>
@@ -7470,7 +7466,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>2012</v>
       </c>
@@ -7505,7 +7501,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>2013</v>
       </c>
@@ -7540,7 +7536,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>2014</v>
       </c>
@@ -7575,7 +7571,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>2015</v>
       </c>
@@ -7610,7 +7606,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>2016</v>
       </c>
@@ -7645,7 +7641,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>2017</v>
       </c>
@@ -7680,7 +7676,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>2018</v>
       </c>
@@ -7715,7 +7711,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>2019</v>
       </c>
@@ -7748,7 +7744,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>2020</v>
       </c>
@@ -7779,7 +7775,7 @@
       <c r="J48" s="37"/>
       <c r="K48" s="37"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>2021</v>
       </c>
@@ -7794,7 +7790,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="12"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>2022</v>
       </c>
@@ -7831,42 +7827,42 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="11" style="43"/>
     <col min="2" max="6" width="11" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
       <c r="F1" s="43" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="65" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="65"/>
+      <c r="E2" s="79"/>
       <c r="F2" s="43" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="79"/>
       <c r="B3" s="46" t="s">
         <v>86</v>
       </c>
@@ -7883,7 +7879,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="46">
         <v>1990</v>
       </c>
@@ -7903,7 +7899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="46">
         <v>1991</v>
       </c>
@@ -7923,7 +7919,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="46">
         <v>1992</v>
       </c>
@@ -7943,7 +7939,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="46">
         <v>1993</v>
       </c>
@@ -7963,7 +7959,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="46">
         <v>1994</v>
       </c>
@@ -7983,7 +7979,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="46">
         <v>1995</v>
       </c>
@@ -8003,7 +7999,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="46">
         <v>1996</v>
       </c>
@@ -8023,7 +8019,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="46">
         <v>1997</v>
       </c>
@@ -8043,7 +8039,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="46">
         <v>1998</v>
       </c>
@@ -8063,7 +8059,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="46">
         <v>1999</v>
       </c>
@@ -8083,7 +8079,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="46">
         <v>2000</v>
       </c>
@@ -8103,7 +8099,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="46">
         <v>2001</v>
       </c>
@@ -8123,7 +8119,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="46">
         <v>2002</v>
       </c>
@@ -8143,7 +8139,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="46">
         <v>2003</v>
       </c>
@@ -8163,7 +8159,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="46">
         <v>2004</v>
       </c>
@@ -8183,7 +8179,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="46">
         <v>2005</v>
       </c>
@@ -8203,7 +8199,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="46">
         <v>2006</v>
       </c>
@@ -8223,7 +8219,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="46">
         <v>2007</v>
       </c>
@@ -8243,7 +8239,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="46">
         <v>2008</v>
       </c>
@@ -8263,7 +8259,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="46">
         <v>2009</v>
       </c>
@@ -8283,7 +8279,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="46">
         <v>2010</v>
       </c>
@@ -8303,7 +8299,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="46">
         <v>2011</v>
       </c>
@@ -8323,7 +8319,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="46">
         <v>2012</v>
       </c>
@@ -8343,7 +8339,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="46">
         <v>2013</v>
       </c>
@@ -8363,7 +8359,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="46">
         <v>2014</v>
       </c>
@@ -8383,7 +8379,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="46">
         <v>2015</v>
       </c>
@@ -8403,7 +8399,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="46">
         <v>2015</v>
       </c>
@@ -8423,7 +8419,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="46">
         <v>2017</v>
       </c>
@@ -8443,7 +8439,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="46">
         <v>2018</v>
       </c>
@@ -8463,7 +8459,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="46">
         <v>2019</v>
       </c>
@@ -8483,7 +8479,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="43">
         <v>2020</v>
       </c>
@@ -8503,7 +8499,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="43">
         <v>2021</v>
       </c>
@@ -8543,7 +8539,7 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.875" style="13" bestFit="1"/>
     <col min="2" max="3" width="10.875" style="14" bestFit="1"/>
@@ -8551,21 +8547,21 @@
     <col min="5" max="5" width="15.625" style="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:5" s="15" customFormat="1">
+      <c r="A1" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="66"/>
-    </row>
-    <row r="2" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="E1" s="80"/>
+    </row>
+    <row r="2" spans="1:5" s="15" customFormat="1">
+      <c r="A2" s="80"/>
       <c r="B2" s="45" t="s">
         <v>86</v>
       </c>
@@ -8579,7 +8575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="45">
         <v>1990</v>
       </c>
@@ -8596,7 +8592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="45">
         <v>1991</v>
       </c>
@@ -8613,7 +8609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="45">
         <v>1992</v>
       </c>
@@ -8630,7 +8626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="45">
         <v>1993</v>
       </c>
@@ -8647,7 +8643,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="45">
         <v>1994</v>
       </c>
@@ -8664,7 +8660,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="45">
         <v>1995</v>
       </c>
@@ -8681,7 +8677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="45">
         <v>1996</v>
       </c>
@@ -8698,7 +8694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="45">
         <v>1997</v>
       </c>
@@ -8715,7 +8711,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="45">
         <v>1998</v>
       </c>
@@ -8732,7 +8728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="45">
         <v>1999</v>
       </c>
@@ -8749,7 +8745,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="45">
         <v>2000</v>
       </c>
@@ -8766,7 +8762,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="45">
         <v>2001</v>
       </c>
@@ -8783,7 +8779,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="45">
         <v>2002</v>
       </c>
@@ -8800,7 +8796,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="45">
         <v>2003</v>
       </c>
@@ -8817,7 +8813,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="45">
         <v>2004</v>
       </c>
@@ -8834,7 +8830,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="45">
         <v>2005</v>
       </c>
@@ -8851,7 +8847,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="45">
         <v>2006</v>
       </c>
@@ -8868,7 +8864,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="45">
         <v>2007</v>
       </c>
@@ -8885,7 +8881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="45">
         <v>2008</v>
       </c>
@@ -8902,7 +8898,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="45">
         <v>2009</v>
       </c>
@@ -8919,7 +8915,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="45">
         <v>2010</v>
       </c>
@@ -8936,7 +8932,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="45">
         <v>2011</v>
       </c>
@@ -8953,7 +8949,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="45">
         <v>2012</v>
       </c>
@@ -8970,7 +8966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="45">
         <v>2013</v>
       </c>
@@ -8987,7 +8983,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="45">
         <v>2014</v>
       </c>
@@ -9004,7 +9000,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="45">
         <v>2015</v>
       </c>
@@ -9021,7 +9017,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="45">
         <v>2016</v>
       </c>
@@ -9038,7 +9034,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="45">
         <v>2017</v>
       </c>
@@ -9055,7 +9051,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="45">
         <v>2018</v>
       </c>
@@ -9072,7 +9068,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="45">
         <v>2019</v>
       </c>
@@ -9089,7 +9085,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="45">
         <v>2020</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="13">
         <v>2021</v>
       </c>
@@ -9142,14 +9138,14 @@
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="13.75" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="15" customFormat="1">
       <c r="A1" s="49" t="s">
         <v>88</v>
       </c>
@@ -9160,7 +9156,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="51">
         <v>2004</v>
       </c>
@@ -9171,7 +9167,7 @@
         <v>38343</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="51">
         <v>2005</v>
       </c>
@@ -9182,7 +9178,7 @@
         <v>38707</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="51">
         <v>2006</v>
       </c>
@@ -9193,7 +9189,7 @@
         <v>39072</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="51">
         <v>2007</v>
       </c>
@@ -9204,7 +9200,7 @@
         <v>39378</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="51">
         <v>2008</v>
       </c>
@@ -9215,7 +9211,7 @@
         <v>39748</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="51">
         <v>2009</v>
       </c>
@@ -9226,7 +9222,7 @@
         <v>40107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="51">
         <v>2010</v>
       </c>
@@ -9237,7 +9233,7 @@
         <v>40478</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="51">
         <v>2011</v>
       </c>
@@ -9248,7 +9244,7 @@
         <v>40841</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="51">
         <v>2012</v>
       </c>
@@ -9259,7 +9255,7 @@
         <v>41205</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="51">
         <v>2013</v>
       </c>
@@ -9270,7 +9266,7 @@
         <v>41564</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="51">
         <v>2014</v>
       </c>
@@ -9281,7 +9277,7 @@
         <v>41926</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="51">
         <v>2015</v>
       </c>
@@ -9292,7 +9288,7 @@
         <v>42300</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="51">
         <v>2016</v>
       </c>
@@ -9303,7 +9299,7 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="51">
         <v>2017</v>
       </c>
@@ -9314,7 +9310,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="51">
         <v>2018</v>
       </c>
@@ -9325,7 +9321,7 @@
         <v>43388</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="51">
         <v>2019</v>
       </c>
@@ -9336,7 +9332,7 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="51">
         <v>2020</v>
       </c>
@@ -9347,7 +9343,7 @@
         <v>44124</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="51">
         <v>2021</v>
       </c>
@@ -9358,7 +9354,7 @@
         <v>44481</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="C20" s="53">
         <v>44561</v>
       </c>
